--- a/TestResults/MHI_Standby_2013-10-21_full-sweep.xlsx
+++ b/TestResults/MHI_Standby_2013-10-21_full-sweep.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="945" windowWidth="27075" windowHeight="12435"/>
+    <workbookView xWindow="1200" yWindow="945" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="MHI_Standby_2013-10-21_full-swe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="34226560"/>
-        <c:axId val="34155136"/>
+        <c:axId val="138697344"/>
+        <c:axId val="138699136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34226560"/>
+        <c:axId val="138697344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +883,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34155136"/>
+        <c:crossAx val="138699136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34155136"/>
+        <c:axId val="138699136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34226560"/>
+        <c:crossAx val="138697344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
         <v>35163</v>
       </c>
       <c r="F4" s="1">
-        <f>D4/(D4+E4)</f>
+        <f t="shared" ref="F4:F35" si="0">D4/(D4+E4)</f>
         <v>2.2982635342185904E-3</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>35200</v>
       </c>
       <c r="F5" s="1">
-        <f>D5/(D5+E5)</f>
+        <f t="shared" si="0"/>
         <v>1.2484394506866417E-3</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>35178</v>
       </c>
       <c r="F6" s="1">
-        <f>D6/(D6+E6)</f>
+        <f t="shared" si="0"/>
         <v>1.8726591760299626E-3</v>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>35156</v>
       </c>
       <c r="F7" s="1">
-        <f>D7/(D7+E7)</f>
+        <f t="shared" si="0"/>
         <v>2.4968789013732834E-3</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>35075</v>
       </c>
       <c r="F8" s="1">
-        <f>D8/(D8+E8)</f>
+        <f t="shared" si="0"/>
         <v>4.7951424355918738E-3</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>35053</v>
       </c>
       <c r="F9" s="1">
-        <f>D9/(D9+E9)</f>
+        <f t="shared" si="0"/>
         <v>5.4193621609351945E-3</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>35090</v>
       </c>
       <c r="F10" s="1">
-        <f>D10/(D10+E10)</f>
+        <f t="shared" si="0"/>
         <v>4.3695380774032462E-3</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>35009</v>
       </c>
       <c r="F11" s="1">
-        <f>D11/(D11+E11)</f>
+        <f t="shared" si="0"/>
         <v>6.6678016116218366E-3</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>34987</v>
       </c>
       <c r="F12" s="1">
-        <f>D12/(D12+E12)</f>
+        <f t="shared" si="0"/>
         <v>7.2920213369651573E-3</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>34965</v>
       </c>
       <c r="F13" s="1">
-        <f>D13/(D13+E13)</f>
+        <f t="shared" si="0"/>
         <v>7.9162410623084788E-3</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>34943</v>
       </c>
       <c r="F14" s="1">
-        <f>D14/(D14+E14)</f>
+        <f t="shared" si="0"/>
         <v>8.5404607876517994E-3</v>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>34921</v>
       </c>
       <c r="F15" s="1">
-        <f>D15/(D15+E15)</f>
+        <f t="shared" si="0"/>
         <v>9.16468051299512E-3</v>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>34840</v>
       </c>
       <c r="F16" s="1">
-        <f>D16/(D16+E16)</f>
+        <f t="shared" si="0"/>
         <v>1.146294404721371E-2</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>34877</v>
       </c>
       <c r="F17" s="1">
-        <f>D17/(D17+E17)</f>
+        <f t="shared" si="0"/>
         <v>1.0413119963681761E-2</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
         <v>34855</v>
       </c>
       <c r="F18" s="1">
-        <f>D18/(D18+E18)</f>
+        <f t="shared" si="0"/>
         <v>1.1037339689025082E-2</v>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
         <v>34774</v>
       </c>
       <c r="F19" s="1">
-        <f>D19/(D19+E19)</f>
+        <f t="shared" si="0"/>
         <v>1.3335603223243673E-2</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>34752</v>
       </c>
       <c r="F20" s="1">
-        <f>D20/(D20+E20)</f>
+        <f t="shared" si="0"/>
         <v>1.3959822948586994E-2</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>34730</v>
       </c>
       <c r="F21" s="1">
-        <f>D21/(D21+E21)</f>
+        <f t="shared" si="0"/>
         <v>1.4584042673930315E-2</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>34767</v>
       </c>
       <c r="F22" s="1">
-        <f>D22/(D22+E22)</f>
+        <f t="shared" si="0"/>
         <v>1.3534218590398366E-2</v>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>34686</v>
       </c>
       <c r="F23" s="1">
-        <f>D23/(D23+E23)</f>
+        <f t="shared" si="0"/>
         <v>1.5832482124616958E-2</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>34605</v>
       </c>
       <c r="F24" s="1">
-        <f>D24/(D24+E24)</f>
+        <f t="shared" si="0"/>
         <v>1.8130745658835545E-2</v>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>34642</v>
       </c>
       <c r="F25" s="1">
-        <f>D25/(D25+E25)</f>
+        <f t="shared" si="0"/>
         <v>1.7080921575303599E-2</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>34620</v>
       </c>
       <c r="F26" s="1">
-        <f>D26/(D26+E26)</f>
+        <f t="shared" si="0"/>
         <v>1.7705141300646918E-2</v>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
         <v>34598</v>
       </c>
       <c r="F27" s="1">
-        <f>D27/(D27+E27)</f>
+        <f t="shared" si="0"/>
         <v>1.832936102599024E-2</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>34517</v>
       </c>
       <c r="F28" s="1">
-        <f>D28/(D28+E28)</f>
+        <f t="shared" si="0"/>
         <v>2.0627624560208831E-2</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>34495</v>
       </c>
       <c r="F29" s="1">
-        <f>D29/(D29+E29)</f>
+        <f t="shared" si="0"/>
         <v>2.125184428555215E-2</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>34532</v>
       </c>
       <c r="F30" s="1">
-        <f>D30/(D30+E30)</f>
+        <f t="shared" si="0"/>
         <v>2.0202020202020204E-2</v>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>34451</v>
       </c>
       <c r="F31" s="1">
-        <f>D31/(D31+E31)</f>
+        <f t="shared" si="0"/>
         <v>2.2500283736238792E-2</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <v>34429</v>
       </c>
       <c r="F32" s="1">
-        <f>D32/(D32+E32)</f>
+        <f t="shared" si="0"/>
         <v>2.3124503461582114E-2</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>34407</v>
       </c>
       <c r="F33" s="1">
-        <f>D33/(D33+E33)</f>
+        <f t="shared" si="0"/>
         <v>2.3748723186925433E-2</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>34385</v>
       </c>
       <c r="F34" s="1">
-        <f>D34/(D34+E34)</f>
+        <f t="shared" si="0"/>
         <v>2.4372942912268755E-2</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>34363</v>
       </c>
       <c r="F35" s="1">
-        <f>D35/(D35+E35)</f>
+        <f t="shared" si="0"/>
         <v>2.4997162637612074E-2</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>34282</v>
       </c>
       <c r="F36" s="1">
-        <f>D36/(D36+E36)</f>
+        <f t="shared" ref="F36:F67" si="1">D36/(D36+E36)</f>
         <v>2.7295426171830665E-2</v>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
         <v>34319</v>
       </c>
       <c r="F37" s="1">
-        <f>D37/(D37+E37)</f>
+        <f t="shared" si="1"/>
         <v>2.6245602088298719E-2</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>34297</v>
       </c>
       <c r="F38" s="1">
-        <f>D38/(D38+E38)</f>
+        <f t="shared" si="1"/>
         <v>2.6869821813642038E-2</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>34216</v>
       </c>
       <c r="F39" s="1">
-        <f>D39/(D39+E39)</f>
+        <f t="shared" si="1"/>
         <v>2.9168085347860629E-2</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>34194</v>
       </c>
       <c r="F40" s="1">
-        <f>D40/(D40+E40)</f>
+        <f t="shared" si="1"/>
         <v>2.9792305073203948E-2</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>34172</v>
       </c>
       <c r="F41" s="1">
-        <f>D41/(D41+E41)</f>
+        <f t="shared" si="1"/>
         <v>3.041652479854727E-2</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>34209</v>
       </c>
       <c r="F42" s="1">
-        <f>D42/(D42+E42)</f>
+        <f t="shared" si="1"/>
         <v>2.936670071501532E-2</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>34128</v>
       </c>
       <c r="F43" s="1">
-        <f>D43/(D43+E43)</f>
+        <f t="shared" si="1"/>
         <v>3.1664964249233915E-2</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
         <v>34047</v>
       </c>
       <c r="F44" s="1">
-        <f>D44/(D44+E44)</f>
+        <f t="shared" si="1"/>
         <v>3.3963227783452503E-2</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>34084</v>
       </c>
       <c r="F45" s="1">
-        <f>D45/(D45+E45)</f>
+        <f t="shared" si="1"/>
         <v>3.2913403699920553E-2</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>34062</v>
       </c>
       <c r="F46" s="1">
-        <f>D46/(D46+E46)</f>
+        <f t="shared" si="1"/>
         <v>3.3537623425263875E-2</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
         <v>34040</v>
       </c>
       <c r="F47" s="1">
-        <f>D47/(D47+E47)</f>
+        <f t="shared" si="1"/>
         <v>3.4161843150607198E-2</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>33959</v>
       </c>
       <c r="F48" s="1">
-        <f>D48/(D48+E48)</f>
+        <f t="shared" si="1"/>
         <v>3.6460106684825785E-2</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>33937</v>
       </c>
       <c r="F49" s="1">
-        <f>D49/(D49+E49)</f>
+        <f t="shared" si="1"/>
         <v>3.7084326410169108E-2</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>33974</v>
       </c>
       <c r="F50" s="1">
-        <f>D50/(D50+E50)</f>
+        <f t="shared" si="1"/>
         <v>3.6034502326637158E-2</v>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>33893</v>
       </c>
       <c r="F51" s="1">
-        <f>D51/(D51+E51)</f>
+        <f t="shared" si="1"/>
         <v>3.8332765860855746E-2</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
         <v>33871</v>
       </c>
       <c r="F52" s="1">
-        <f>D52/(D52+E52)</f>
+        <f t="shared" si="1"/>
         <v>3.8956985586199068E-2</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <v>33849</v>
       </c>
       <c r="F53" s="1">
-        <f>D53/(D53+E53)</f>
+        <f t="shared" si="1"/>
         <v>3.958120531154239E-2</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>33827</v>
       </c>
       <c r="F54" s="1">
-        <f>D54/(D54+E54)</f>
+        <f t="shared" si="1"/>
         <v>4.0205425036885713E-2</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
         <v>33805</v>
       </c>
       <c r="F55" s="1">
-        <f>D55/(D55+E55)</f>
+        <f t="shared" si="1"/>
         <v>4.0829644762229035E-2</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <v>33724</v>
       </c>
       <c r="F56" s="1">
-        <f>D56/(D56+E56)</f>
+        <f t="shared" si="1"/>
         <v>4.3127908296447623E-2</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
         <v>33761</v>
       </c>
       <c r="F57" s="1">
-        <f>D57/(D57+E57)</f>
+        <f t="shared" si="1"/>
         <v>4.2078084212915673E-2</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>33739</v>
       </c>
       <c r="F58" s="1">
-        <f>D58/(D58+E58)</f>
+        <f t="shared" si="1"/>
         <v>4.2702303938258995E-2</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>33658</v>
       </c>
       <c r="F59" s="1">
-        <f>D59/(D59+E59)</f>
+        <f t="shared" si="1"/>
         <v>4.5000567472477583E-2</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
         <v>33636</v>
       </c>
       <c r="F60" s="1">
-        <f>D60/(D60+E60)</f>
+        <f t="shared" si="1"/>
         <v>4.5624787197820905E-2</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>33614</v>
       </c>
       <c r="F61" s="1">
-        <f>D61/(D61+E61)</f>
+        <f t="shared" si="1"/>
         <v>4.6249006923164228E-2</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>33651</v>
       </c>
       <c r="F62" s="1">
-        <f>D62/(D62+E62)</f>
+        <f t="shared" si="1"/>
         <v>4.5199182839632278E-2</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>33570</v>
       </c>
       <c r="F63" s="1">
-        <f>D63/(D63+E63)</f>
+        <f t="shared" si="1"/>
         <v>4.7497446373850866E-2</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         <v>33489</v>
       </c>
       <c r="F64" s="1">
-        <f>D64/(D64+E64)</f>
+        <f t="shared" si="1"/>
         <v>4.979570990806946E-2</v>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>33526</v>
       </c>
       <c r="F65" s="1">
-        <f>D65/(D65+E65)</f>
+        <f t="shared" si="1"/>
         <v>4.874588582453751E-2</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>33504</v>
       </c>
       <c r="F66" s="1">
-        <f>D66/(D66+E66)</f>
+        <f t="shared" si="1"/>
         <v>4.9370105549880833E-2</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>33482</v>
       </c>
       <c r="F67" s="1">
-        <f>D67/(D67+E67)</f>
+        <f t="shared" si="1"/>
         <v>4.9994325275224148E-2</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>33401</v>
       </c>
       <c r="F68" s="1">
-        <f>D68/(D68+E68)</f>
+        <f t="shared" ref="F68:F99" si="2">D68/(D68+E68)</f>
         <v>5.2292588809442743E-2</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>33379</v>
       </c>
       <c r="F69" s="1">
-        <f>D69/(D69+E69)</f>
+        <f t="shared" si="2"/>
         <v>5.2916808534786065E-2</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>33416</v>
       </c>
       <c r="F70" s="1">
-        <f>D70/(D70+E70)</f>
+        <f t="shared" si="2"/>
         <v>5.1866984451254115E-2</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>33335</v>
       </c>
       <c r="F71" s="1">
-        <f>D71/(D71+E71)</f>
+        <f t="shared" si="2"/>
         <v>5.4165247985472703E-2</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
         <v>33313</v>
       </c>
       <c r="F72" s="1">
-        <f>D72/(D72+E72)</f>
+        <f t="shared" si="2"/>
         <v>5.4789467710816026E-2</v>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         <v>33291</v>
       </c>
       <c r="F73" s="1">
-        <f>D73/(D73+E73)</f>
+        <f t="shared" si="2"/>
         <v>5.5413687436159348E-2</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>33269</v>
       </c>
       <c r="F74" s="1">
-        <f>D74/(D74+E74)</f>
+        <f t="shared" si="2"/>
         <v>5.603790716150267E-2</v>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>33247</v>
       </c>
       <c r="F75" s="1">
-        <f>D75/(D75+E75)</f>
+        <f t="shared" si="2"/>
         <v>5.6662126886845986E-2</v>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
         <v>33166</v>
       </c>
       <c r="F76" s="1">
-        <f>D76/(D76+E76)</f>
+        <f t="shared" si="2"/>
         <v>5.896039042106458E-2</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
         <v>33203</v>
       </c>
       <c r="F77" s="1">
-        <f>D77/(D77+E77)</f>
+        <f t="shared" si="2"/>
         <v>5.791056633753263E-2</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>33181</v>
       </c>
       <c r="F78" s="1">
-        <f>D78/(D78+E78)</f>
+        <f t="shared" si="2"/>
         <v>5.8534786062875953E-2</v>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
         <v>33100</v>
       </c>
       <c r="F79" s="1">
-        <f>D79/(D79+E79)</f>
+        <f t="shared" si="2"/>
         <v>6.0833049597094541E-2</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>33078</v>
       </c>
       <c r="F80" s="1">
-        <f>D80/(D80+E80)</f>
+        <f t="shared" si="2"/>
         <v>6.1457269322437863E-2</v>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
         <v>33056</v>
       </c>
       <c r="F81" s="1">
-        <f>D81/(D81+E81)</f>
+        <f t="shared" si="2"/>
         <v>6.2081489047781185E-2</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>33093</v>
       </c>
       <c r="F82" s="1">
-        <f>D82/(D82+E82)</f>
+        <f t="shared" si="2"/>
         <v>6.1031664964249235E-2</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
         <v>33012</v>
       </c>
       <c r="F83" s="1">
-        <f>D83/(D83+E83)</f>
+        <f t="shared" si="2"/>
         <v>6.332992849846783E-2</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>32931</v>
       </c>
       <c r="F84" s="1">
-        <f>D84/(D84+E84)</f>
+        <f t="shared" si="2"/>
         <v>6.5628192032686411E-2</v>
       </c>
     </row>
